--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_APFA_DebtInvestmentProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_APFA_DebtInvestmentProfile_Regression_001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056278FD-F791-4302-A38E-5C03F3B401A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9689CE94-FDF7-42E5-B304-D5EDD3F2A4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{397F6C8C-76D5-4724-9027-584DB73AF3FC}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
